--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732ED52A-83BA-4A51-A2BF-494F112C31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93700437-54C7-442F-B804-12B87FE85BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-Award-Reporting-Master" sheetId="1" r:id="rId1"/>
@@ -296,14 +296,14 @@
 -TIN</t>
   </si>
   <si>
-    <t>Version: 2022.03.28</t>
-  </si>
-  <si>
     <t>Conditional</t>
   </si>
   <si>
     <t>Explaination if Primary Sector response is "Other"
 Max characters 100</t>
+  </si>
+  <si>
+    <t>Version: 2022.12.13</t>
   </si>
 </sst>
 </file>
@@ -429,42 +429,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -714,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -809,10 +807,10 @@
       <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -871,14 +869,14 @@
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>68</v>
+      <c r="I5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>37</v>
@@ -908,23 +906,23 @@
         <v>38</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -936,13 +934,13 @@
       <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="11" t="s">
@@ -980,67 +978,67 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1068,11 +1066,11 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6"/>

--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do.treas.gov\dfsres\isilon\Homeshare3\CarrikerCh\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93700437-54C7-442F-B804-12B87FE85BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE387B-F620-43D9-9B60-E28F315974D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="855" windowWidth="20655" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-Award-Reporting-Master" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Template Name: Subaward Reporting</t>
   </si>
@@ -280,30 +280,38 @@
  "Other"</t>
   </si>
   <si>
-    <t>The Subrecipient's or Contractor's Unique Entity Identifier (UEI) from their SAM.gov profile. 
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Explaination if Primary Sector response is "Other"
+Max characters 100</t>
+  </si>
+  <si>
+    <t>Version: 2023.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Subrecipient's, Contractor's, or Beneficiary's  Internal Revenue Service (IRS) Taxpayer Identification Number. 
+Format XXXXXXXXX, 
+9 numeric characters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Subrecipient's or Contractor's Unique Entity Identifier (UEI) from their SAM.gov profile. 
 Format XXXXXXXXXXXX, 
 12 alpha-numeric characters.
-NOTE: One of the following identification numbers must be provided:
--UEI, or
--TIN</t>
-  </si>
-  <si>
-    <t>The Subrecipient's, Contractor's, or Beneficiary's  Internal Revenue Service (IRS) Taxpayer Identification Number. 
-Format XXXXXXXXX, 
-9 numeric characters.
-NOTE: One of the following identification numbers must be provided:
--UEI, or
--TIN</t>
-  </si>
-  <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>Explaination if Primary Sector response is "Other"
-Max characters 100</t>
-  </si>
-  <si>
-    <t>Version: 2022.12.13</t>
+</t>
+  </si>
+  <si>
+    <t>SubAward/Direct Payment Entity Type</t>
+  </si>
+  <si>
+    <t>The type of entity for this subaward or direct payment. Select one of the predefined menu items:
+"Subrecipient"
+"Contractor"
+"Beneficiary"</t>
+  </si>
+  <si>
+    <t>Entity_Type_2__c</t>
   </si>
 </sst>
 </file>
@@ -348,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -412,24 +420,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,11 +453,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,39 +676,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U979"/>
+  <dimension ref="A1:V979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="3" width="18.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.875" customWidth="1"/>
-    <col min="5" max="5" width="186" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="76" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
-    <col min="11" max="11" width="67.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="72.625" customWidth="1"/>
-    <col min="14" max="14" width="74.875" customWidth="1"/>
-    <col min="15" max="15" width="28.5" customWidth="1"/>
-    <col min="16" max="16" width="23.625" customWidth="1"/>
-    <col min="17" max="17" width="27.5" customWidth="1"/>
-    <col min="18" max="18" width="22.875" customWidth="1"/>
-    <col min="19" max="19" width="24.625" customWidth="1"/>
-    <col min="20" max="20" width="27.5" customWidth="1"/>
-    <col min="21" max="21" width="44.75" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="76" customWidth="1"/>
+    <col min="11" max="11" width="30.125" customWidth="1"/>
+    <col min="12" max="12" width="67.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="72.625" customWidth="1"/>
+    <col min="15" max="15" width="74.875" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="27.5" customWidth="1"/>
+    <col min="19" max="19" width="22.875" customWidth="1"/>
+    <col min="20" max="20" width="24.625" customWidth="1"/>
+    <col min="21" max="21" width="27.5" customWidth="1"/>
+    <col min="22" max="22" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -720,12 +716,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="6"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -733,8 +729,9 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -744,12 +741,12 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -757,8 +754,9 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
@@ -768,12 +766,12 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -781,8 +779,9 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -798,61 +797,64 @@
       <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -863,38 +865,38 @@
       <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>67</v>
+      <c r="I5" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>37</v>
@@ -903,20 +905,23 @@
         <v>37</v>
       </c>
       <c r="S5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="U5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -928,64 +933,67 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>66</v>
+      <c r="B7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>40</v>
@@ -993,56 +1001,59 @@
       <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="K7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1050,12 +1061,12 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1063,21 +1074,22 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1085,14 +1097,15 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do.treas.gov\dfsres\isilon\Homeshare3\CarrikerCh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE387B-F620-43D9-9B60-E28F315974D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD241B-7489-4331-8127-1E235820FDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="855" windowWidth="20655" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="90" windowWidth="38640" windowHeight="21030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-Award-Reporting-Master" sheetId="1" r:id="rId1"/>
@@ -280,6 +280,14 @@
  "Other"</t>
   </si>
   <si>
+    <t>The Subrecipient's, Contractor's, or Beneficiary's  Internal Revenue Service (IRS) Taxpayer Identification Number. 
+Format XXXXXXXXX, 
+9 numeric characters.
+NOTE: One of the following identification numbers must be provided:
+-UEI, or
+-TIN</t>
+  </si>
+  <si>
     <t>Conditional</t>
   </si>
   <si>
@@ -287,19 +295,16 @@
 Max characters 100</t>
   </si>
   <si>
-    <t>Version: 2023.02.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Subrecipient's, Contractor's, or Beneficiary's  Internal Revenue Service (IRS) Taxpayer Identification Number. 
-Format XXXXXXXXX, 
-9 numeric characters.
-</t>
+    <t>Version: 2023.3.31</t>
   </si>
   <si>
     <t xml:space="preserve">The Subrecipient's or Contractor's Unique Entity Identifier (UEI) from their SAM.gov profile. 
 Format XXXXXXXXXXXX, 
 12 alpha-numeric characters.
-</t>
+NOTE: For subrecipients and contractors, the UEI is required. Beneficiaries do not need to provide a UEI. </t>
+  </si>
+  <si>
+    <t>RP_Entity_Type__c</t>
   </si>
   <si>
     <t>SubAward/Direct Payment Entity Type</t>
@@ -309,9 +314,6 @@
 "Subrecipient"
 "Contractor"
 "Beneficiary"</t>
-  </si>
-  <si>
-    <t>Entity_Type_2__c</t>
   </si>
 </sst>
 </file>
@@ -356,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -420,11 +422,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,12 +468,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,16 +696,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V979"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="3" width="18.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.5" customWidth="1"/>
-    <col min="5" max="6" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="70.875" customWidth="1"/>
+    <col min="5" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="32.875" customWidth="1"/>
     <col min="8" max="8" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="24.25" style="2" customWidth="1"/>
@@ -708,7 +726,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -797,8 +815,8 @@
       <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>72</v>
+      <c r="F4" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>4</v>
@@ -854,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -865,7 +883,7 @@
       <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -878,10 +896,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>37</v>
@@ -911,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>37</v>
@@ -921,7 +939,7 @@
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -933,8 +951,8 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>70</v>
+      <c r="F6" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>21</v>
@@ -989,11 +1007,11 @@
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>68</v>
+      <c r="C7" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>40</v>
@@ -1001,8 +1019,8 @@
       <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>71</v>
+      <c r="F7" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>42</v>
@@ -1017,7 +1035,7 @@
         <v>64</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>45</v>

--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4FF24-0196-4AB1-9314-4ADA91CCBB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{E9A4FF24-0196-4AB1-9314-4ADA91CCBB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D430BA-DE7C-472D-B460-7E2DE77760D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-Award-Reporting-Master" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>Template Name: Subaward Reporting</t>
   </si>
@@ -146,23 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">Recipient's internal account number for the grant, contract, transfer, or direct payment. This can be the account number or any other unique identifying number assigned by the Recipient to the award. This number is strictly for the Recipient's recordkeeping.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The type of subaward. 
- "Contract: Purchase Order"
- "Contract: Delivery Order"
- "Contract: Blanket Purchase Agreement"
- "Contract: Definitive Contract"
- "Grant: Lump Sum Payment(s)"
- "Grant: Reimbursable"
- "Direct Payment"
- "Transfer: Lump Sum Payment(s)"
- "Transfer: Reimbursable"  
- "Loan - maturity prior to 12/31/26 with planned forgiveness"
- "Loan - maturity prior to 12/31/26 without planned forgiveness"
- "Loan - maturity past 12/31/26 with planned forgiveness"
- "Loan - maturity past 12/31/26 without planned forgiveness"
-</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of SLFRF funds obligated by the Recipient to a SubRecipient under a given SubAward. 
@@ -191,11 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">The name of the city where the predominant performance of the subaward will be accomplished.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Postal Service (USPS) twoletter abbreviation for the state or territory indicating where the predominant performance of the subaward will be accomplished. 
-Valid responses: (AL, AK, AS, AZ, AR, CA, CO, CT, DE, DC, FM, FL, GA, GU, HI, ID, IL, IN, IA, KS, KY, LA, ME, MH, MD, MA, MI, MN, MS, MO, MT, NE, NV, NH, NJ, NM, NY, NC, ND, MP, OH, OK, OR, PW, PA, PR, RI, SC, SD, TN, TX, UT, VT, VI, VA, WA, WV, WI, WY)
 </t>
   </si>
   <si>
@@ -310,29 +288,183 @@
     <t>SubAward/Direct Payment Entity Type</t>
   </si>
   <si>
+    <t>Edited_Subaward_Amount_Explanation__c</t>
+  </si>
+  <si>
+    <t>Edited Award Amount Explanation</t>
+  </si>
+  <si>
+    <t>Loan_Expiration_Date__c</t>
+  </si>
+  <si>
+    <t>Loan Expiration Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required if Subaward Type is Loan. Format : MM/DD/YYYY
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of subaward. 
+ "Contract: Purchase Order"
+ "Contract: Delivery Order"
+ "Contract: Blanket Purchase Agreement"
+ "Contract: Definitive Contract"
+ "Grant: Lump Sum Payment(s)"
+ "Grant: Reimbursable"
+ "Direct Payment"
+ "Transfer: Lump Sum Payment(s)"
+ "Transfer: Reimbursable"  
+ "Loan - maturity prior to 12/31/26 with planned forgiveness"
+ "Loan - maturity prior to 12/31/26 without planned forgiveness"
+ "Loan - maturity past 12/31/26 with planned forgiveness"
+ "Loan - maturity past 12/31/26 without planned forgiveness"
+ "Interagency Agreement (IAA)"
+</t>
+  </si>
+  <si>
+    <t>IAA_Basic_Conditions__c</t>
+  </si>
+  <si>
+    <t>IAA Basic Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. It imposes conditions on the use of funds by the agency, department, or part of government receiving funds to carry out the program
+2. It governs the provision of funds from one agency, department, or part of government to another to carry out an eligible use of SLFRF funds
+3. It governs the procurement of goods or services by one agency, department, or part of government from another
+Select which of the three basic conditions the IAA satisfies:
+Required if Subaward Type is IAA.</t>
+  </si>
+  <si>
+    <t>IAA_Requirements_Attestation__c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self attestation that the IAA satisfies the other three requirements in FAQ 17.6 listed below:
+1. It sets forth specific requirements, such as a scope of work and project deliverables;
+2. It is signed by the parties to the agreement, or otherwise evidences that each party has assented to the agreement; and
+3. It does not disclaim any binding effect or state that it does not create rights or obligations.
+Required if Subaward Type is IAA.
+ "Yes"
+ "No"
+</t>
+  </si>
+  <si>
+    <t>Personnel_Cost_Estimates__c</t>
+  </si>
+  <si>
+    <t>IAA Requirements Attestation</t>
+  </si>
+  <si>
+    <t>Personnel Cost Estimates?</t>
+  </si>
+  <si>
+    <t>Personnel_Estimated_Expended</t>
+  </si>
+  <si>
+    <t>Personnel_Actual_Expended</t>
+  </si>
+  <si>
+    <t>Personnel_Expended_FTE_Count</t>
+  </si>
+  <si>
+    <t>Personnel_Expended_Justification</t>
+  </si>
+  <si>
+    <t>Estimated Personnel Expenditures</t>
+  </si>
+  <si>
+    <t>Actual Personnel Expenditures</t>
+  </si>
+  <si>
+    <t>Personnel Expended FTE Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated personnel expenditures in 2025 and 2026.
+Required If Subaward Type is Direct Payment and Yes is selected for 2025 and 2026 Personnel Cost Estimates
+</t>
+  </si>
+  <si>
+    <t>Actual personnel expenditures in 2025 and 2026 field.
+Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of full-time equivalent (FTE) positions for which funds are obligated. 
+Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation of how the estimated personnel expenditures in 2025 and 2026 was determined and provide brief description of job categories covered. 
+Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.
+</t>
+  </si>
+  <si>
+    <t>Contract_Estimated_Expended</t>
+  </si>
+  <si>
+    <t>Contract_Actual_Expended</t>
+  </si>
+  <si>
+    <t>Contract_Expended_Justification</t>
+  </si>
+  <si>
+    <t>Contract Estimated Expended</t>
+  </si>
+  <si>
+    <t>Contract Actual Expended</t>
+  </si>
+  <si>
+    <t>Contract Expended Justfiication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated funds required to cover change orders and contingencies provided for by the contract field.
+Required If Subaward Type is one of the following: 
+“Contract: Purchase Order”
+“Contract: Delivery Order”
+“Contract: Blanket Purchase Agreement”
+“Contract: Definitive Contract”
+</t>
+  </si>
+  <si>
+    <t>Actual funds expended to cover change orders and contingencies field.
+Required If Subaward Type is one of the following: 
+“Contract: Purchase Order”
+“Contract: Delivery Order”
+“Contract: Blanket Purchase Agreement”
+“Contract: Definitive Contract”
+AND
+ an amount greater than 0 was added to the estimated Admin &amp; Legal expenses.</t>
+  </si>
+  <si>
     <t>The type of entity for this subaward or direct payment. Select one of the predefined menu items:
 "Subrecipient"
 "Contractor"
-"Beneficiary"</t>
-  </si>
-  <si>
-    <t>Edited_Subaward_Amount_Explanation__c</t>
-  </si>
-  <si>
-    <t>Edited Award Amount Explanation</t>
-  </si>
-  <si>
-    <t>Please provide a new explanation on why the subaward amount updated. Only required if updating an exisiting award amount on an existing subaward</t>
-  </si>
-  <si>
-    <t>Loan_Expiration_Date__c</t>
-  </si>
-  <si>
-    <t>Loan Expiration Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required if Subaward Type is Loan. Format : MM/DD/YYYY
+"Beneficiary"
+"IAA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Postal Service (USPS) twoletter abbreviation for the state or territory indicating where the predominant performance of the subaward will be accomplished. 
+Valid responses: (AL, AK, AS, AZ, AR, CA, CO, CT, DE, DC, FM, FL, GA, GU, HI, ID, IL, IN, IA, KS, KY, LA, ME, MH, MD, MA, MI, MN, MS, MO, MT, NE, NV, NH, NJ, NM, NY, NC, ND, MP, OH, OK, OR, PW, PA, PR, RI, SC, SD, TN, TX, UT, VT, VI, VA, WA, WV, WI, WY, Other)
 </t>
+  </si>
+  <si>
+    <t>Personnel Expended Justification</t>
+  </si>
+  <si>
+    <t>Explanation of how the estimated funds required to cover change orders and contingencies provided for by the contract was determined.
+If Subaward Type is one of the following: 
+“Contract: Purchase Order”
+“Contract: Delivery Order”
+“Contract: Blanket Purchase Agreement”
+“Contract: Definitive Contract”
+AND
+ an amount greater than 0 was added to the estimated Admin &amp; Legal expenses.</t>
+  </si>
+  <si>
+    <t>Please provide a new explanation on why the subaward amount updated. Only required if updating an existing award amount on an existing subaward</t>
+  </si>
+  <si>
+    <t>Will this project include 2025 and 2026 personnel cost estimates?
+Only applicable If Subaward Type is "Direct Payment".</t>
   </si>
 </sst>
 </file>
@@ -342,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +499,11 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lato"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -497,6 +634,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,6 +653,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,41 +857,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X979"/>
+  <dimension ref="A1:AH979"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.09765625" customWidth="1"/>
     <col min="2" max="3" width="18.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.8984375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="32.8984375" customWidth="1"/>
     <col min="8" max="8" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="24.19921875" style="2" customWidth="1"/>
     <col min="10" max="10" width="76" customWidth="1"/>
-    <col min="11" max="11" width="30.09765625" customWidth="1"/>
-    <col min="12" max="12" width="67.8984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.796875" customWidth="1"/>
+    <col min="12" max="12" width="24.796875" style="2" customWidth="1"/>
     <col min="13" max="13" width="24.09765625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="72.59765625" customWidth="1"/>
-    <col min="15" max="15" width="74.8984375" customWidth="1"/>
+    <col min="14" max="14" width="31.59765625" customWidth="1"/>
+    <col min="15" max="15" width="32.5" customWidth="1"/>
     <col min="16" max="16" width="28.5" customWidth="1"/>
     <col min="17" max="17" width="23.59765625" customWidth="1"/>
     <col min="18" max="18" width="27.5" customWidth="1"/>
     <col min="19" max="19" width="22.8984375" customWidth="1"/>
     <col min="20" max="20" width="24.59765625" customWidth="1"/>
     <col min="21" max="21" width="27.5" customWidth="1"/>
-    <col min="22" max="22" width="44.69921875" customWidth="1"/>
-    <col min="23" max="23" width="43.09765625" customWidth="1"/>
+    <col min="22" max="22" width="37.296875" customWidth="1"/>
+    <col min="23" max="23" width="30.19921875" customWidth="1"/>
     <col min="24" max="24" width="23.59765625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="37" style="3" customWidth="1"/>
+    <col min="26" max="26" width="29.59765625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="35.3984375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="32.296875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="23.59765625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="28.5" style="3" customWidth="1"/>
+    <col min="31" max="31" width="27.69921875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="29.69921875" style="3" customWidth="1"/>
+    <col min="33" max="33" width="23.59765625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="29.69921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -769,8 +924,18 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -795,10 +960,20 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -821,16 +996,26 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -839,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>4</v>
@@ -884,24 +1069,54 @@
         <v>17</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="Z4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -925,10 +1140,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>37</v>
@@ -958,27 +1173,57 @@
         <v>38</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>19</v>
@@ -987,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>21</v>
@@ -1032,27 +1277,57 @@
         <v>34</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>77</v>
       </c>
+      <c r="Z6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>40</v>
@@ -1061,69 +1336,99 @@
         <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="U7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="W7" s="12" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="X7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="19" t="s">
         <v>78</v>
       </c>
+      <c r="Z7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1141,8 +1446,18 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1165,14 +1480,24 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/subawardBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{E9A4FF24-0196-4AB1-9314-4ADA91CCBB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D430BA-DE7C-472D-B460-7E2DE77760D7}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{E9A4FF24-0196-4AB1-9314-4ADA91CCBB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325B4C21-4823-4A1E-9773-DD8C7821F498}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-Award-Reporting-Master" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Template Name: Subaward Reporting</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Personnel_Estimated_Expended</t>
   </si>
   <si>
-    <t>Personnel_Actual_Expended</t>
-  </si>
-  <si>
     <t>Personnel_Expended_FTE_Count</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
   </si>
   <si>
     <t>Estimated Personnel Expenditures</t>
-  </si>
-  <si>
-    <t>Actual Personnel Expenditures</t>
   </si>
   <si>
     <t>Personnel Expended FTE Count</t>
@@ -384,10 +378,6 @@
 </t>
   </si>
   <si>
-    <t>Actual personnel expenditures in 2025 and 2026 field.
-Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of full-time equivalent (FTE) positions for which funds are obligated. 
 Required If Subaward Type is Direct Payment and and an amount is entered into the 2025/2026 estimated personnel cost.
 </t>
@@ -401,16 +391,10 @@
     <t>Contract_Estimated_Expended</t>
   </si>
   <si>
-    <t>Contract_Actual_Expended</t>
-  </si>
-  <si>
     <t>Contract_Expended_Justification</t>
   </si>
   <si>
     <t>Contract Estimated Expended</t>
-  </si>
-  <si>
-    <t>Contract Actual Expended</t>
   </si>
   <si>
     <t>Contract Expended Justfiication</t>
@@ -423,16 +407,6 @@
 “Contract: Blanket Purchase Agreement”
 “Contract: Definitive Contract”
 </t>
-  </si>
-  <si>
-    <t>Actual funds expended to cover change orders and contingencies field.
-Required If Subaward Type is one of the following: 
-“Contract: Purchase Order”
-“Contract: Delivery Order”
-“Contract: Blanket Purchase Agreement”
-“Contract: Definitive Contract”
-AND
- an amount greater than 0 was added to the estimated Admin &amp; Legal expenses.</t>
   </si>
   <si>
     <t>The type of entity for this subaward or direct payment. Select one of the predefined menu items:
@@ -653,10 +627,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH979"/>
+  <dimension ref="A1:AF979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -891,15 +861,12 @@
     <col min="26" max="26" width="29.59765625" style="3" customWidth="1"/>
     <col min="27" max="27" width="35.3984375" style="3" customWidth="1"/>
     <col min="28" max="28" width="32.296875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="23.59765625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="28.5" style="3" customWidth="1"/>
-    <col min="31" max="31" width="27.69921875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="29.69921875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="23.59765625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="29.69921875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="28.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="27.69921875" style="3" customWidth="1"/>
+    <col min="31" max="32" width="29.69921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -932,10 +899,8 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -968,10 +933,8 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:34" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -1004,10 +967,8 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
     </row>
-    <row r="4" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1099,19 +1060,13 @@
         <v>86</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -1208,14 +1163,8 @@
       <c r="AF5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AG5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="6" spans="1:34" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -1298,28 +1247,22 @@
         <v>83</v>
       </c>
       <c r="AB6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AC6" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="AD6" s="17" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AE6" s="17" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -1336,7 +1279,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>75</v>
@@ -1372,7 +1315,7 @@
         <v>49</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>50</v>
@@ -1387,7 +1330,7 @@
         <v>52</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>74</v>
@@ -1399,31 +1342,25 @@
         <v>80</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="AE7" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH7" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1454,10 +1391,8 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
     </row>
-    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1488,16 +1423,14 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
